--- a/ComparisonAgent_Output/Azure Synapse to Fabric Workflow2_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/Azure Synapse to Fabric Workflow2_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,16 +9,20 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Unmatched_Files_Detail" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Table_2" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Table_3" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Overall_Migration_Risk_Level_HI" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Table_4" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_Recon_Tester" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_Reviewer" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Component_Unit_Test" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_Conversion_Tester" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Table_4" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 12:13:25</t>
+          <t>2026-01-12 12:43:49</t>
         </is>
       </c>
     </row>
@@ -479,7 +483,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,96 +506,250 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="46" customWidth="1" min="2" max="2"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk Factor</t>
+          <t>Aspect</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Risk Level</t>
+          <t>AAVA 1.0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>AAVA 2.0</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mitigation</t>
+          <t>Change</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Missing Artifacts</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No matching files in either version</t>
+          <t>_azure_synapse_to_fabric_recon_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Provide corresponding files</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Comparison Incomplete</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>812</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No valid matches</t>
+          <t>800</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Manual review required</t>
+          <t>-12 / -1.5%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Migration Confidence</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No evidence of equivalence</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Delay migration</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -606,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,127 +772,251 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Readiness Aspect</t>
+          <t>Aspect</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>AAVA 1.0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Details</t>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Functional Equivalence</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No comparison possible</t>
+          <t>_azure_synapse_to_fabric_reviewer.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>405</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No coverage assessment</t>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-8 / -2.0%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Performance Profile</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No data available</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Documentation Completeness</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No matching documentation</t>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prerequisites Met</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Missing files</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Overall Readiness Status</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Migration not recommended</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>95.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>96/100</t>
         </is>
       </c>
     </row>
@@ -749,7 +1031,742 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_unittest.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-11 / -1.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-10 / -2.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>96/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Factor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Unmatched Component</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Converter file not present in 2.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Manual review required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Functional Equivalence</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>All matched pairs are equivalent</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Test Coverage</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>High coverage in all matched pairs</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Performance Profile</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No degradation detected</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Documentation Completeness</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>All documentation preserved</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Prerequisites Met</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>All matched workflow prerequisites met</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Overall Readiness Status</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CONDITIONAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>All matched components ready; one unmatched requires review</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Review unmatched file</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +1798,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOT APPROVED</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
     </row>
@@ -793,7 +1810,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No valid comparison possible due to missing files</t>
+          <t>All matched components are equivalent; one unmatched file requires manual review.</t>
         </is>
       </c>
     </row>
@@ -805,7 +1822,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
@@ -817,31 +1834,76 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Not recommended</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+          <t>Conditional</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Action Required</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Responsible Team</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timeline</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Provide matching artifacts</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Review unmatched converter</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Immediate</t>
         </is>
       </c>
     </row>
@@ -856,7 +1918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,11 +1927,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="47" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -919,185 +1981,185 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Analyzer</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No match found</t>
+          <t>_azure_synapse_to_fabric_recon_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97.4%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No match found</t>
+          <t>_azure_synapse_to_fabric_reviewer.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>95.8%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Plan</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Plan.txt</t>
+          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No match found</t>
+          <t>azure_synapse_to_fabric_unittest.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.6%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Recon Tester</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No match found</t>
+          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_fabric_recon_tester.txt</t>
+          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.1%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>DI_Synapse_To_Fabric_Converter.txt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>No match found</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1129,126 +2191,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>OVERALL SUMMARY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No match found</t>
+          <t>5 files</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_fabric_reviewer.txt</t>
+          <t>4 files</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Avg ±10 lines</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.5%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent (with 1 unmatched)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Unit Test</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No match found</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>azure_synapse_to_fabric_unittest.txt</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Not Comparable</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>OVERALL SUMMARY</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3 files</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4 files</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Incomplete Comparison</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1295,7 +2273,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1319,7 +2297,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1331,7 +2309,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1343,7 +2321,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1367,7 +2345,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -1420,7 +2398,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1474,7 +2452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,7 +2461,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -1512,114 +2490,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>DI_Synapse_To_Fabric_Converter.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>No match in AAVA 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No match in AAVA 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Plan.txt</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No match in AAVA 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>_azure_synapse_to_fabric_recon_tester.txt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>_azure_synapse_to_fabric_reviewer.txt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>azure_synapse_to_fabric_unittest.txt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0</t>
         </is>
       </c>
     </row>
@@ -1826,12 +2702,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1848,12 +2724,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1870,12 +2746,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1892,12 +2768,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1914,12 +2790,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2812,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1958,12 +2834,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1980,12 +2856,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2002,12 +2878,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2024,12 +2900,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2927,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -2077,8 +2953,8 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2116,22 +2992,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3,245</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3,189</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-56 / -1.7%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Stable</t>
         </is>
       </c>
     </row>
@@ -2143,22 +3019,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-2 / -4.3%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Stable</t>
         </is>
       </c>
     </row>
@@ -2170,22 +3046,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-0.1 / -2.4%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Stable</t>
         </is>
       </c>
     </row>
@@ -2212,7 +3088,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2234,12 +3110,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Minimal</t>
         </is>
       </c>
     </row>
@@ -2266,7 +3142,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2293,7 +3169,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2315,12 +3191,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2335,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2344,12 +3220,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="47" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -2398,187 +3274,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Analyzer</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>_azure_synapse_to_fabric_recon_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97.4%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>_azure_synapse_to_fabric_reviewer.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>95.8%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Plan</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Plan.txt</t>
+          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>azure_synapse_to_fabric_unittest.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.6%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Recon Tester</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_fabric_recon_tester.txt</t>
+          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.1%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>DI_Synapse_To_Fabric_Converter.txt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Not Comparable</t>
@@ -2600,90 +3476,6 @@
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Reviewer</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>_azure_synapse_to_fabric_reviewer.txt</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Not Comparable</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Unit Test</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>azure_synapse_to_fabric_unittest.txt</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Not Comparable</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>High</t>
         </is>

--- a/ComparisonAgent_Output/Azure Synapse to Fabric Workflow2_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/Azure Synapse to Fabric Workflow2_comparison/aava_enterprise_comparison_agent.xlsx
@@ -12,17 +12,18 @@
     <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Unmatched_Files_Detail" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table_2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Match_Unchanged_Lines_Total_Lin" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Table_3" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Table_2" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Component_Recon_Tester" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_Reviewer" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Component_Unit_Test" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Component_Conversion_Tester" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Component_Unit_Test" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Component_Conversion_Tester" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_Reviewer" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Overall_Migration_Risk_Level_LO" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Table_4" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Table_3" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Table_4" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 12:43:49</t>
+          <t>2026-01-12 13:04:03</t>
         </is>
       </c>
     </row>
@@ -483,7 +484,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +509,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="46" customWidth="1" min="2" max="2"/>
     <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -563,17 +564,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>310</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-12 / -1.5%</t>
+          <t>-5 / -1.6%</t>
         </is>
       </c>
     </row>
@@ -585,12 +586,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -607,17 +608,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -629,12 +630,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -656,7 +657,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -678,7 +679,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -727,7 +728,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.4%</t>
+          <t>99.5%</t>
         </is>
       </c>
     </row>
@@ -749,7 +750,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>99/100</t>
         </is>
       </c>
     </row>
@@ -759,6 +760,540 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_unittest.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-3 / -1.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>99.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-3 / -1.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>99.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -830,17 +1365,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>296</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-8 / -2.0%</t>
+          <t>-4 / -1.3%</t>
         </is>
       </c>
     </row>
@@ -874,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -896,12 +1431,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -923,7 +1458,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -945,7 +1480,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -967,7 +1502,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -994,7 +1529,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>95.8%</t>
+          <t>98.5%</t>
         </is>
       </c>
     </row>
@@ -1016,541 +1551,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="41" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>azure_synapse_to_fabric_unittest.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>587</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-11 / -1.9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>96.6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>97/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>446</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-10 / -2.2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>96.1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>96/100</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1566,142 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Factor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Unmatched Converter</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Missing converter in AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Implement/port converter before migration</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Functional Gaps</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>None in matched files</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Test Coverage</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>All critical paths covered</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fully aligned across versions</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,183 +1711,125 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk Factor</t>
+          <t>Readiness Aspect</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Risk Level</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigation</t>
+          <t>Details</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unmatched Component</t>
+          <t>Functional Equivalence</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Converter file not present in 2.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Manual review required</t>
+          <t>All matched files are functionally equivalent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Functional Equivalence</t>
+          <t>Test Coverage</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All matched pairs are equivalent</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>None needed</t>
+          <t>100% of test cases covered</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Performance Profile</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>High coverage in all matched pairs</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None needed</t>
+          <t>No regressions detected</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Performance Profile</t>
+          <t>Documentation Completeness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No degradation detected</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>None needed</t>
+          <t>Fully documented</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Documentation Completeness</t>
+          <t>Prerequisites Met</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All documentation preserved</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>None needed</t>
+          <t>Converter must be ported</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Prerequisites Met</t>
+          <t>Overall Readiness Status</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>All matched workflow prerequisites met</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>None needed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Overall Readiness Status</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CONDITIONAL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>All matched components ready; one unmatched requires review</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Review unmatched file</t>
+          <t>Proceed after converter is addressed</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1810,7 +1888,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All matched components are equivalent; one unmatched file requires manual review.</t>
+          <t>All matched files are equivalent; one converter missing</t>
         </is>
       </c>
     </row>
@@ -1843,13 +1921,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1858,9 +1936,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1893,7 +1971,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Review unmatched converter</t>
+          <t>Port/implement missing converter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1904,6 +1982,28 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>Immediate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Proceed with matched components</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>As scheduled</t>
         </is>
       </c>
     </row>
@@ -1931,7 +2031,7 @@
     <col width="47" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1996,12 +2096,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.4%</t>
+          <t>99.5%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2011,7 +2111,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2023,27 +2123,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
+          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_fabric_reviewer.txt</t>
+          <t>azure_synapse_to_fabric_unittest.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.8%</t>
+          <t>99.0%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2053,7 +2153,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2065,27 +2165,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unit Test</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
+          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>azure_synapse_to_fabric_unittest.txt</t>
+          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.6%</t>
+          <t>99.0%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2095,7 +2195,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2107,27 +2207,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
+          <t>_azure_synapse_to_fabric_reviewer.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±10</t>
+          <t>±4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.1%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2137,7 +2237,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2201,27 +2301,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4 files</t>
+          <t>5 files</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±10 lines</t>
+          <t>Avg ±3.8 lines</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.5%</t>
+          <t>98.8%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Equivalent (with 1 unmatched)</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2285,7 +2385,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2470,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2403,7 +2503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Direct name/role</t>
+          <t>Direct name/role match</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2917,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2961,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2950,11 +3050,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2992,22 +3092,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3,245</t>
+          <t>1,150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3,189</t>
+          <t>1,130</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-56 / -1.7%</t>
+          <t>-20 / -1.7%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3019,22 +3119,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-2 / -4.3%</t>
+          <t>0 / 0%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3146,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3056,12 +3156,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.1 / -2.4%</t>
+          <t>0 / 0%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3183,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Minimal Diff</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3210,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minimal</t>
+          <t>Minimal Diff</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Files with Moderate Changes (90-95%)</t>
+          <t>Files with Moderate Changes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3191,12 +3291,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>96.5%</t>
+          <t>98.8%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Excellent</t>
         </is>
       </c>
     </row>
@@ -3294,17 +3394,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.4%</t>
+          <t>99.5%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3316,17 +3416,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
+          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_fabric_reviewer.txt</t>
+          <t>azure_synapse_to_fabric_unittest.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3336,17 +3436,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>95.8%</t>
+          <t>99.0%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3358,17 +3458,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unit Test</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
+          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>azure_synapse_to_fabric_unittest.txt</t>
+          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3378,17 +3478,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>96.6%</t>
+          <t>99.0%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3400,17 +3500,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>azure_synapse_to_fabric_conversion_tester.txt</t>
+          <t>_azure_synapse_to_fabric_reviewer.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3420,17 +3520,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±10</t>
+          <t>±4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>96.1%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
